--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV102-001 -  Tipe Transaksi Investasi - Fixed Income View Detil.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV102-001 -  Tipe Transaksi Investasi - Fixed Income View Detil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F15A24-76F2-418B-BC21-CE1AE7C24BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7360EA-E355-486C-8EF4-CF1A2FC8B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -95,6 +95,12 @@
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
 Kode Tipe Transaksi : Z</t>
+  </si>
+  <si>
+    <t>NAMA_TIPE_TRANSAKSI</t>
+  </si>
+  <si>
+    <t>Pelunasan Sebagian</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -498,7 +506,7 @@
     <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -557,6 +565,9 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -598,7 +609,9 @@
       <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
